--- a/tests/JS/TestFiles/ClosedXml.Table.xlsx
+++ b/tests/JS/TestFiles/ClosedXml.Table.xlsx
@@ -1,138 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Contacts" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\FsSpreadsheet\tests\JS\TestFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C080CD6D-265D-4FC8-BDE1-56A344E54FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Contacts" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>FName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Outcast</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Income</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Galt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rearden</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dagny</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Taggart</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>FName</t>
+  </si>
+  <si>
+    <t>LName</t>
+  </si>
+  <si>
+    <t>Outcast</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Galt</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Rearden</t>
+  </si>
+  <si>
+    <t>Dagny</t>
+  </si>
+  <si>
+    <t>Taggart</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="1">
-    <x:dxf>
-      <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
-    </x:dxf>
-  </x:dxfs>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MyAwesomeTable" displayName="MyAwesomeTable" ref="B3:F6" totalsRowShown="0">
-  <x:autoFilter ref="B3:F6"/>
-  <x:tableColumns count="5">
-    <x:tableColumn id="1" name="FName"/>
-    <x:tableColumn id="2" name="LName"/>
-    <x:tableColumn id="3" name="Outcast"/>
-    <x:tableColumn id="4" name="DOB" dataDxfId="0"/>
-    <x:tableColumn id="5" name="Income"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MyAwesomeTable" displayName="MyAwesomeTable" ref="B3:F6" totalsRowShown="0">
+  <autoFilter ref="B3:F6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Outcast"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOB" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Income"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,91 +409,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F6"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="1">
-        <x:v>6961</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>2000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="B5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E5" s="1">
-        <x:v>2620</x:v>
-      </x:c>
-      <x:c r="F5" s="0">
-        <x:v>40000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6" s="1">
-        <x:v>8020</x:v>
-      </x:c>
-      <x:c r="F6" s="0">
-        <x:v>10000</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6961</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2620</v>
+      </c>
+      <c r="F5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8020</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>